--- a/Articles/Articles Feedback.xlsx
+++ b/Articles/Articles Feedback.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreeshtripathi/PepCoding/Articles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516302F0-A095-5A45-9566-F00EAAA590D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3F8C6D-67EB-5F46-8432-D24CA302A1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="33600" windowHeight="20200" xr2:uid="{07346016-C587-974F-9D9F-D9753371B492}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="33600" windowHeight="20200" activeTab="5" xr2:uid="{07346016-C587-974F-9D9F-D9753371B492}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Archit" sheetId="1" r:id="rId1"/>
+    <sheet name="Arnab" sheetId="2" r:id="rId2"/>
+    <sheet name="Guneet" sheetId="3" r:id="rId3"/>
+    <sheet name="Ishu" sheetId="4" r:id="rId4"/>
+    <sheet name="Nikita" sheetId="5" r:id="rId5"/>
+    <sheet name="Shreya" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>S. No.</t>
   </si>
@@ -515,9 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4528B5A8-13C8-B04D-994B-C33233DEDEA2}">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -932,4 +937,2109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15ABC30-9E0A-FB42-BD48-C63049A50522}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="134" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C1099-625B-7047-9BFD-2C42A000D60E}">
+  <dimension ref="B2:J31"/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147858B4-697E-404E-8F8B-DDB332F9079E}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="127" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404C9807-C2E6-DB49-91CB-FF164BAEC1DF}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DE2B3E-5C16-E346-A16B-23590B065E93}">
+  <dimension ref="B1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>